--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\3_Research\Neff Paper\Working_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBC7322-0539-4EBB-84DA-79D186B12154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28295973-B52B-4E49-A736-AC338CDEEBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{A6AFD50A-DA89-42FE-8C0A-976D830DAAB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{A6AFD50A-DA89-42FE-8C0A-976D830DAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="CORN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="171">
   <si>
     <t>Parameter</t>
   </si>
@@ -549,15 +549,22 @@
   <si>
     <t>Pos Return Indicator</t>
   </si>
+  <si>
+    <t>System J</t>
+  </si>
+  <si>
+    <t>System k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -663,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +780,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,10 +1117,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE57"/>
+  <dimension ref="B1:AG57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF56" sqref="AF56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,17 +1140,21 @@
     <col min="22" max="23" width="11.140625" style="1" customWidth="1"/>
     <col min="24" max="25" width="10.7109375" style="1" customWidth="1"/>
     <col min="26" max="27" width="11.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="28" max="29" width="10.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" style="50" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="50" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="42" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="35" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="53"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" s="25" t="s">
         <v>59</v>
       </c>
@@ -1147,8 +1176,9 @@
       <c r="P2" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF2" s="53"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1181,8 +1211,9 @@
       <c r="Q3" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF3" s="53"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1211,72 +1242,80 @@
       <c r="N4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF4" s="53"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="F5" s="4"/>
       <c r="Z5" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D6" s="46" t="s">
+      <c r="AF5" s="53"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="55"/>
+      <c r="L6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46" t="s">
+      <c r="M6" s="55"/>
+      <c r="N6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46" t="s">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46" t="s">
+      <c r="S6" s="55"/>
+      <c r="T6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46" t="s">
+      <c r="U6" s="55"/>
+      <c r="V6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="55"/>
+      <c r="X6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46" t="s">
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46" t="s">
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG6" s="54"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1359,10 +1398,20 @@
       <c r="AC7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD7" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1387,7 +1436,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1463,14 +1512,26 @@
       <c r="AA9" s="39">
         <v>0.99999999999984612</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="38">
         <v>-2.7443767986434659E-16</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="38">
         <v>0.9999999999999527</v>
       </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD9" s="49">
+        <v>5.8616638791502256E-16</v>
+      </c>
+      <c r="AE9" s="49">
+        <v>0.99999999999994116</v>
+      </c>
+      <c r="AF9" s="38">
+        <v>5.8616638791502256E-16</v>
+      </c>
+      <c r="AG9" s="38">
+        <v>0.99999999999994049</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>141</v>
       </c>
@@ -1518,14 +1579,14 @@
       <c r="AA10" s="39">
         <v>0.65103269982378675</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="38">
         <v>-2.113433110876246E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="38">
         <v>0.56406058721936581</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>142</v>
       </c>
@@ -1573,14 +1634,14 @@
       <c r="AA11" s="39">
         <v>5.6890948913664419E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="38">
         <v>-5.6103188959689999E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="38">
         <v>4.5973618914493697E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>143</v>
       </c>
@@ -1628,14 +1689,14 @@
       <c r="AA12" s="39">
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="38">
         <v>-0.68824866300683973</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1667,8 +1728,10 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
       <c r="AA13" s="41"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1716,14 +1779,26 @@
       <c r="AA14" s="39">
         <v>2.550265108668182E-3</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="38">
         <v>6.3543834270396718E-3</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="38">
         <v>0.12076332633512871</v>
       </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD14" s="49">
+        <v>-7.1980998736177618E-3</v>
+      </c>
+      <c r="AE14" s="49">
+        <v>0.33323518766266158</v>
+      </c>
+      <c r="AF14" s="38">
+        <v>-4.653416093011585E-3</v>
+      </c>
+      <c r="AG14" s="38">
+        <v>0.49035913003344378</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1751,10 +1826,10 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
       <c r="AA15" s="41"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>163</v>
       </c>
@@ -1780,14 +1855,26 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
       <c r="AA16" s="41"/>
-      <c r="AB16">
+      <c r="AB16" s="38">
         <v>5.119495845418218E-3</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="38">
         <v>0.59180707117371356</v>
       </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="49">
+        <v>2.8899220658578158E-3</v>
+      </c>
+      <c r="AE16" s="49">
+        <v>0.85048120912757819</v>
+      </c>
+      <c r="AF16" s="38">
+        <v>1.8025972629860661E-3</v>
+      </c>
+      <c r="AG16" s="38">
+        <v>0.90353437978294604</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
@@ -1831,14 +1918,26 @@
       <c r="AA17" s="39">
         <v>2.9927127432611829E-3</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="38">
         <v>-1.3003947619898719E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="38">
         <v>6.8114674125263619E-5</v>
       </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="49">
+        <v>-2.1668643115773819E-2</v>
+      </c>
+      <c r="AE17" s="49">
+        <v>6.4108204719270923E-4</v>
+      </c>
+      <c r="AF17" s="38">
+        <v>-2.428304124971022E-2</v>
+      </c>
+      <c r="AG17" s="38">
+        <v>4.345859274630382E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
@@ -1862,10 +1961,10 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
       <c r="AA18" s="41"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -1941,14 +2040,26 @@
       <c r="AA19" s="39">
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="38">
         <v>1.5861980072530198E-2</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="38">
         <v>9.6613506713252306E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="49">
+        <v>1.0882611935921171E-2</v>
+      </c>
+      <c r="AE19" s="49">
+        <v>6.1403333272744831E-3</v>
+      </c>
+      <c r="AF19" s="38">
+        <v>1.417898961594417E-2</v>
+      </c>
+      <c r="AG19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2024,14 +2135,26 @@
       <c r="AA20" s="39">
         <v>3.3723210423275418E-5</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="38">
         <v>9.4449303997766132E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="38">
         <v>2.371909449128129E-3</v>
       </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="49">
+        <v>0.2756321718782363</v>
+      </c>
+      <c r="AE20" s="49">
+        <v>9.4692831353881957E-10</v>
+      </c>
+      <c r="AF20" s="38">
+        <v>0.30916012008158461</v>
+      </c>
+      <c r="AG20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2107,14 +2230,26 @@
       <c r="AA21" s="39">
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="38">
         <v>0.52369464288464873</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="38">
         <v>1.8647111755032419E-4</v>
       </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="49">
+        <v>0.33025025270599262</v>
+      </c>
+      <c r="AE21" s="49">
+        <v>7.4986329006059282E-3</v>
+      </c>
+      <c r="AF21" s="38">
+        <v>0.40688889628443509</v>
+      </c>
+      <c r="AG21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
@@ -2148,10 +2283,10 @@
       <c r="AA22" s="39">
         <v>0.13369871618903259</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
@@ -2207,14 +2342,26 @@
       <c r="AA23" s="39">
         <v>0.80276409213986044</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="38">
         <v>-1.662563188427592E-3</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="38">
         <v>0.66863106953956297</v>
       </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="49">
+        <v>8.2884158567271791E-3</v>
+      </c>
+      <c r="AE23" s="49">
+        <v>0.50451184594597898</v>
+      </c>
+      <c r="AF23" s="38">
+        <v>1.48181800573704E-2</v>
+      </c>
+      <c r="AG23" s="38">
+        <v>0.13757259667691321</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
@@ -2270,14 +2417,26 @@
       <c r="AA24" s="39">
         <v>9.0015771004023915E-3</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="38">
         <v>3.087887064313654E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="38">
         <v>5.4546394303352619E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="49">
+        <v>4.4703930761280167E-2</v>
+      </c>
+      <c r="AE24" s="49">
+        <v>0.26488470229587602</v>
+      </c>
+      <c r="AF24" s="38">
+        <v>4.2942897310358941E-2</v>
+      </c>
+      <c r="AG24" s="38">
+        <v>0.2279792546416704</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2329,14 +2488,20 @@
       <c r="AA25" s="39">
         <v>0.24623628347464629</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="38">
         <v>-4.858255254858785E-4</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="38">
         <v>0.87495443056089162</v>
       </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="49">
+        <v>1.8792334323763189E-3</v>
+      </c>
+      <c r="AE25" s="49">
+        <v>0.67756189865223471</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
@@ -2388,14 +2553,20 @@
       <c r="AA26" s="39">
         <v>3.3168568571029228E-4</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="38">
         <v>-3.6092964989514762E-3</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="38">
         <v>9.6630130880372311E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="49">
+        <v>1.162658834986357E-3</v>
+      </c>
+      <c r="AE26" s="49">
+        <v>0.75000979386320843</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
@@ -2447,14 +2618,20 @@
       <c r="AA27" s="39">
         <v>0.8330095301771312</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="38">
         <v>4.1316529359845312E-4</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="38">
         <v>0.87044860521523537</v>
       </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="49">
+        <v>9.9232953597124564E-3</v>
+      </c>
+      <c r="AE27" s="49">
+        <v>0.1017271853973816</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>16</v>
       </c>
@@ -2506,14 +2683,20 @@
       <c r="AA28" s="39">
         <v>0.98616954808590918</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="38">
         <v>8.5630486176395361E-4</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="38">
         <v>0.81836663709947444</v>
       </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="49">
+        <v>5.9509176564573824E-3</v>
+      </c>
+      <c r="AE28" s="49">
+        <v>0.34444144012569278</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
@@ -2565,14 +2748,20 @@
       <c r="AA29" s="39">
         <v>0.41680760462994998</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="38">
         <v>2.6908661817258172E-3</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="38">
         <v>0.40384639344007178</v>
       </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="49">
+        <v>1.0321317500607651E-2</v>
+      </c>
+      <c r="AE29" s="49">
+        <v>0.13541793670037339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -2624,14 +2813,20 @@
       <c r="AA30" s="39">
         <v>0.4904183887281317</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="38">
         <v>2.126245056335787E-4</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="38">
         <v>0.92814604809585366</v>
       </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="49">
+        <v>5.1538342730594296E-3</v>
+      </c>
+      <c r="AE30" s="49">
+        <v>0.24193826353775669</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2683,14 +2878,20 @@
       <c r="AA31" s="39">
         <v>0.5260713503140968</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" s="38">
         <v>1.6772780764863591E-3</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="38">
         <v>0.48538103926452608</v>
       </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD31" s="49">
+        <v>7.1431958987252129E-3</v>
+      </c>
+      <c r="AE31" s="49">
+        <v>4.2015001704920341E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>20</v>
       </c>
@@ -2742,14 +2943,20 @@
       <c r="AA32" s="39">
         <v>0.92987152299609122</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="38">
         <v>6.0175142907161817E-4</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="38">
         <v>0.79956734487335868</v>
       </c>
-    </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="49">
+        <v>3.4091360375486878E-3</v>
+      </c>
+      <c r="AE32" s="49">
+        <v>0.37922836277175342</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2801,14 +3008,20 @@
       <c r="AA33" s="39">
         <v>0</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="38">
         <v>-2.5436268681446371E-3</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="38">
         <v>0.27709332871345999</v>
       </c>
-    </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD33" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>22</v>
       </c>
@@ -2860,14 +3073,20 @@
       <c r="AA34" s="39">
         <v>0.48129641155411029</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="38">
         <v>-6.4483889825149652E-4</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="38">
         <v>0.75062201045461929</v>
       </c>
-    </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD34" s="49">
+        <v>1.7416689040569871E-3</v>
+      </c>
+      <c r="AE34" s="49">
+        <v>0.63530341430095971</v>
+      </c>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>23</v>
       </c>
@@ -2919,14 +3138,20 @@
       <c r="AA35" s="39">
         <v>3.755107336189667E-10</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="38">
         <v>-3.6916047081563918E-3</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="38">
         <v>7.364893542757156E-2</v>
       </c>
-    </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="49">
+        <v>3.5843378933393258E-5</v>
+      </c>
+      <c r="AE35" s="49">
+        <v>0.99215127263661285</v>
+      </c>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C36" s="5">
         <v>2013</v>
       </c>
@@ -2978,14 +3203,20 @@
       <c r="AA36" s="39">
         <v>0.49181942704578102</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" s="38">
         <v>6.4154175883953963E-4</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="38">
         <v>0.88649764338170534</v>
       </c>
-    </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD36" s="49">
+        <v>1.158738245574718E-2</v>
+      </c>
+      <c r="AE36" s="49">
+        <v>1.2052661830012299E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>2014</v>
       </c>
@@ -3037,14 +3268,20 @@
       <c r="AA37" s="39">
         <v>0.92512853520081517</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="38">
         <v>5.6340830210204916E-4</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="38">
         <v>0.9190596553592898</v>
       </c>
-    </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="49">
+        <v>1.346955293453388E-2</v>
+      </c>
+      <c r="AE37" s="49">
+        <v>7.9089042060258352E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <v>2015</v>
       </c>
@@ -3096,14 +3333,20 @@
       <c r="AA38" s="39">
         <v>4.9683657188381858E-10</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" s="38">
         <v>-7.5817740451307224E-3</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="38">
         <v>5.205850868305717E-2</v>
       </c>
-    </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C39" s="5">
         <v>2016</v>
       </c>
@@ -3155,14 +3398,20 @@
       <c r="AA39" s="39">
         <v>2.5401995108231819E-2</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" s="38">
         <v>-3.8516984867013209E-3</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="38">
         <v>0.3249718923653373</v>
       </c>
-    </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="49">
+        <v>5.5978664513910139E-3</v>
+      </c>
+      <c r="AE39" s="49">
+        <v>0.20868367638061919</v>
+      </c>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>2017</v>
       </c>
@@ -3214,14 +3463,20 @@
       <c r="AA40" s="39">
         <v>4.6340709047854034E-13</v>
       </c>
-      <c r="AB40">
+      <c r="AB40" s="38">
         <v>-7.6108046402929433E-3</v>
       </c>
-      <c r="AC40">
+      <c r="AC40" s="38">
         <v>5.7360176814238439E-2</v>
       </c>
-    </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C41" s="5">
         <v>2018</v>
       </c>
@@ -3273,14 +3528,20 @@
       <c r="AA41" s="39">
         <v>0</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="38">
         <v>-7.8500430712326406E-3</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="38">
         <v>7.1414704269562534E-2</v>
       </c>
-    </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C42" s="5">
         <v>2019</v>
       </c>
@@ -3332,14 +3593,20 @@
       <c r="AA42" s="39">
         <v>2.1643419919363142E-2</v>
       </c>
-      <c r="AB42">
+      <c r="AB42" s="38">
         <v>-4.6064337319073039E-3</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="38">
         <v>0.27896552149594722</v>
       </c>
-    </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="49">
+        <v>2.9870324289721739E-3</v>
+      </c>
+      <c r="AE42" s="49">
+        <v>0.29645298873630338</v>
+      </c>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C43" s="5">
         <v>2020</v>
       </c>
@@ -3391,14 +3658,20 @@
       <c r="AA43" s="39">
         <v>6.624159166970256E-2</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="38">
         <v>1.7279682140132799E-2</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="38">
         <v>0.16352715872708951</v>
       </c>
-    </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="49">
+        <v>1.5897153200194931E-2</v>
+      </c>
+      <c r="AE43" s="49">
+        <v>0.20955996185287809</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
@@ -3450,14 +3723,26 @@
       <c r="AA44" s="39">
         <v>0.95898746845999994</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="38">
         <v>-3.2514605424492108E-3</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="38">
         <v>0.72583780483805671</v>
       </c>
-    </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="38">
+        <v>9.081616316712587E-4</v>
+      </c>
+      <c r="AG44" s="38">
+        <v>0.93343792184781926</v>
+      </c>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
@@ -3509,14 +3794,26 @@
       <c r="AA45" s="39">
         <v>0.46424195727891471</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="38">
         <v>2.520343152413717E-2</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="38">
         <v>0.28747289768005801</v>
       </c>
-    </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="49">
+        <v>5.6752888536881173E-2</v>
+      </c>
+      <c r="AE45" s="49">
+        <v>0.33066687696418179</v>
+      </c>
+      <c r="AF45" s="38">
+        <v>4.9859128642825871E-2</v>
+      </c>
+      <c r="AG45" s="38">
+        <v>0.19596409386017699</v>
+      </c>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3568,14 +3865,26 @@
       <c r="AA46" s="39">
         <v>0.4727433985656031</v>
       </c>
-      <c r="AB46">
+      <c r="AB46" s="38">
         <v>-4.6404491307580923E-3</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="38">
         <v>0.57514587462282707</v>
       </c>
-    </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
         <v>24</v>
       </c>
@@ -3627,14 +3936,26 @@
       <c r="AA47" s="39">
         <v>0.17976582380793071</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="38">
         <v>0.1012296946894494</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="38">
         <v>0.19134098832744709</v>
       </c>
-    </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="49">
+        <v>0.13899887938767211</v>
+      </c>
+      <c r="AE47" s="49">
+        <v>0.31895076437904901</v>
+      </c>
+      <c r="AF47" s="38">
+        <v>0.123953120485071</v>
+      </c>
+      <c r="AG47" s="38">
+        <v>0.27815225282089601</v>
+      </c>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>25</v>
       </c>
@@ -3686,14 +4007,26 @@
       <c r="AA48" s="39">
         <v>2.8501493807120418E-2</v>
       </c>
-      <c r="AB48">
+      <c r="AB48" s="38">
         <v>6.0184410476696967E-2</v>
       </c>
-      <c r="AC48">
+      <c r="AC48" s="38">
         <v>5.0762067725728333E-2</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="49">
+        <v>6.9415812232525811E-2</v>
+      </c>
+      <c r="AE48" s="49">
+        <v>0.1573100622376149</v>
+      </c>
+      <c r="AF48" s="38">
+        <v>7.1281797201659822E-2</v>
+      </c>
+      <c r="AG48" s="38">
+        <v>6.7269069474706678E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
@@ -3745,14 +4078,26 @@
       <c r="AA49" s="39">
         <v>0.92849602942486165</v>
       </c>
-      <c r="AB49">
+      <c r="AB49" s="38">
         <v>0</v>
       </c>
-      <c r="AC49">
+      <c r="AC49" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="49">
+        <v>2.2975217558045041E-4</v>
+      </c>
+      <c r="AE49" s="49">
+        <v>0.97368641452155158</v>
+      </c>
+      <c r="AF49" s="38">
+        <v>4.6424689451891859E-3</v>
+      </c>
+      <c r="AG49" s="38">
+        <v>0.55599865921045089</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
         <v>27</v>
       </c>
@@ -3804,14 +4149,26 @@
       <c r="AA50" s="39">
         <v>0.25472221921647548</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="38">
         <v>3.2279889650582709E-3</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="38">
         <v>0.34403081118213491</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
         <v>30</v>
       </c>
@@ -3855,10 +4212,12 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
       <c r="AA51" s="41"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="49"/>
+      <c r="AE51" s="49"/>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
         <v>31</v>
       </c>
@@ -3910,14 +4269,26 @@
       <c r="AA52" s="39">
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AB52" s="38">
         <v>5.9786120998721398E-5</v>
       </c>
-      <c r="AC52">
+      <c r="AC52" s="38">
         <v>8.4238506771496802E-3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="49">
+        <v>7.2740807761914185E-5</v>
+      </c>
+      <c r="AE52" s="49">
+        <v>1.321307764373514E-2</v>
+      </c>
+      <c r="AF52" s="38">
+        <v>1.052975098801368E-4</v>
+      </c>
+      <c r="AG52" s="38">
+        <v>1.263705786458402E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3933,8 +4304,12 @@
       <c r="S53" s="12"/>
       <c r="T53"/>
       <c r="U53"/>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="49"/>
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>47</v>
       </c>
@@ -3986,8 +4361,15 @@
       <c r="AB54" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="50">
+        <v>-0.181948</v>
+      </c>
+      <c r="AF54" s="51">
+        <v>-0.17602000000000001</v>
+      </c>
+      <c r="AG54" s="51"/>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>48</v>
       </c>
@@ -4039,8 +4421,15 @@
       <c r="AB55" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="50">
+        <v>-8.2798999999999998E-2</v>
+      </c>
+      <c r="AF55" s="51">
+        <v>-0.12920000000000001</v>
+      </c>
+      <c r="AG55" s="51"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4060,8 +4449,10 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4081,9 +4472,12 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
+      <c r="AF57" s="51"/>
+      <c r="AG57" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="T6:U6"/>
@@ -4332,14 +4726,14 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="34" t="s">
         <v>3</v>
       </c>
@@ -4352,42 +4746,42 @@
         <v>3</v>
       </c>
       <c r="M6" s="45"/>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46" t="s">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46" t="s">
+      <c r="S6" s="55"/>
+      <c r="T6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46" t="s">
+      <c r="U6" s="55"/>
+      <c r="V6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="55"/>
+      <c r="X6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46" t="s">
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46" t="s">
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46" t="s">
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AE6" s="46"/>
+      <c r="AE6" s="55"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -13463,10 +13857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C4F264-6B59-4934-8F7B-6A316671411E}">
-  <dimension ref="B1:AA62"/>
+  <dimension ref="B1:AC62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="X33" sqref="C1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13488,12 +13882,14 @@
     <col min="19" max="19" width="9.5703125" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="29" t="s">
         <v>59</v>
       </c>
@@ -13513,7 +13909,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
         <v>52</v>
       </c>
@@ -13536,7 +13932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="31" t="s">
         <v>53</v>
       </c>
@@ -13554,30 +13950,30 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="55"/>
       <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="34" t="s">
         <v>36</v>
       </c>
@@ -13607,11 +14003,15 @@
       </c>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" s="34"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC7" s="46"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
@@ -13688,8 +14088,14 @@
       <c r="AA8" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -13703,7 +14109,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="19" t="s">
         <v>5</v>
@@ -13768,8 +14174,20 @@
       <c r="W10">
         <v>0.99999999999996736</v>
       </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <v>2.8667790866213798E-17</v>
+      </c>
+      <c r="Y10">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>2.8667790866213798E-17</v>
+      </c>
+      <c r="AA10">
+        <v>0.999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="19" t="s">
         <v>141</v>
@@ -13823,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="19" t="s">
         <v>143</v>
@@ -13877,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="19" t="s">
         <v>155</v>
@@ -13931,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="19" t="s">
         <v>152</v>
@@ -13985,7 +14403,7 @@
         <v>1.269339533227942E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="19" t="s">
         <v>157</v>
@@ -14039,7 +14457,7 @@
         <v>0.41423938868073579</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="19" t="s">
         <v>156</v>
@@ -14093,7 +14511,7 @@
         <v>0.13021331406010761</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="19" t="s">
         <v>49</v>
@@ -14121,7 +14539,7 @@
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="19" t="s">
         <v>43</v>
@@ -14166,8 +14584,20 @@
       <c r="W18">
         <v>0.79183716820032091</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>6.740844996347653E-3</v>
+      </c>
+      <c r="Y18">
+        <v>0.44866079030968398</v>
+      </c>
+      <c r="Z18">
+        <v>7.0297337137436066E-3</v>
+      </c>
+      <c r="AA18">
+        <v>0.42376204479054241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="19" t="s">
         <v>46</v>
@@ -14195,7 +14625,7 @@
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="19" t="s">
         <v>44</v>
@@ -14224,8 +14654,20 @@
       <c r="W20">
         <v>1.4387443635577309E-5</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>-1.1197820111841111E-3</v>
+      </c>
+      <c r="Y20">
+        <v>0.96217092166509466</v>
+      </c>
+      <c r="Z20">
+        <v>-1.656589756853207E-3</v>
+      </c>
+      <c r="AA20">
+        <v>0.94386174684898627</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="18" t="s">
         <v>50</v>
@@ -14262,8 +14704,20 @@
       <c r="W21">
         <v>0.67146407756084225</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>-1.2189182604302341E-2</v>
+      </c>
+      <c r="Y21">
+        <v>0.6837908431469828</v>
+      </c>
+      <c r="Z21">
+        <v>-8.8891828309258635E-3</v>
+      </c>
+      <c r="AA21">
+        <v>0.80801614509638253</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="19"/>
       <c r="D22" s="1"/>
@@ -14285,7 +14739,7 @@
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
@@ -14309,7 +14763,7 @@
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="19" t="s">
         <v>7</v>
@@ -14374,8 +14828,20 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="Y24">
+        <v>0.99999999999690914</v>
+      </c>
+      <c r="Z24">
+        <v>1.539618560331952E-3</v>
+      </c>
+      <c r="AA24">
+        <v>0.31193473117854481</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="19" t="s">
         <v>8</v>
@@ -14440,8 +14906,20 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>7.5105882915112832E-2</v>
+      </c>
+      <c r="Y25">
+        <v>4.4694477614509287E-2</v>
+      </c>
+      <c r="Z25">
+        <v>9.1051502632387551E-2</v>
+      </c>
+      <c r="AA25">
+        <v>1.107454420336418E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="19" t="s">
         <v>9</v>
@@ -14506,8 +14984,20 @@
       <c r="W26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <v>0.90486299841227669</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0.89869142750722686</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="19" t="s">
         <v>81</v>
@@ -14538,8 +15028,14 @@
       <c r="U27" s="38">
         <v>0.95898586241698647</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>8.1614833790806204E-4</v>
+      </c>
+      <c r="AA27">
+        <v>0.97062488204077502</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="19" t="s">
         <v>28</v>
@@ -14588,8 +15084,20 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X28">
+        <v>1.051308761903318E-2</v>
+      </c>
+      <c r="Y28">
+        <v>0.65780330313479274</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="19" t="s">
         <v>29</v>
@@ -14638,8 +15146,20 @@
       <c r="W29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1.6101212215427509E-2</v>
+      </c>
+      <c r="AA29">
+        <v>0.20800956109620231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="19" t="s">
         <v>13</v>
@@ -14688,8 +15208,14 @@
       <c r="W30">
         <v>0.15475313332744611</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>2.0928298756036569E-3</v>
+      </c>
+      <c r="Y30">
+        <v>0.49431390918709361</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="19" t="s">
         <v>14</v>
@@ -14738,8 +15264,14 @@
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="19" t="s">
         <v>15</v>
@@ -14788,8 +15320,14 @@
       <c r="W32">
         <v>0.52362420147530941</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X32">
+        <v>5.5078091367266168E-3</v>
+      </c>
+      <c r="Y32">
+        <v>0.29434215253732149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="19" t="s">
         <v>16</v>
@@ -14838,8 +15376,14 @@
       <c r="W33">
         <v>5.0031197364397428E-4</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <v>4.3867339197025171E-4</v>
+      </c>
+      <c r="Y33">
+        <v>0.90348423563421609</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="19" t="s">
         <v>17</v>
@@ -14888,8 +15432,14 @@
       <c r="W34">
         <v>2.7089426775134481E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="19" t="s">
         <v>18</v>
@@ -14938,8 +15488,14 @@
       <c r="W35">
         <v>9.6369821012132206E-9</v>
       </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="19" t="s">
         <v>19</v>
@@ -14988,8 +15544,14 @@
       <c r="W36">
         <v>0.56375470454753041</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X36">
+        <v>2.4336528934458092E-3</v>
+      </c>
+      <c r="Y36">
+        <v>0.44521495549899459</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="19" t="s">
         <v>20</v>
@@ -15038,8 +15600,14 @@
       <c r="W37">
         <v>2.153832667772804E-14</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="19" t="s">
         <v>21</v>
@@ -15088,8 +15656,14 @@
       <c r="W38">
         <v>0.42645146337367978</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X38">
+        <v>1.533135532449109E-3</v>
+      </c>
+      <c r="Y38">
+        <v>0.29309189370905081</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="19" t="s">
         <v>22</v>
@@ -15138,8 +15712,14 @@
       <c r="W39">
         <v>0.26525603416752302</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X39">
+        <v>3.3905141931633298E-3</v>
+      </c>
+      <c r="Y39">
+        <v>0.38097265177122352</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="19" t="s">
         <v>23</v>
@@ -15188,8 +15768,14 @@
       <c r="W40">
         <v>2.9131808076954258E-11</v>
       </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X40">
+        <v>1.2888900633289369E-3</v>
+      </c>
+      <c r="Y40">
+        <v>0.7129640375633266</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="19">
         <v>2013</v>
@@ -15238,8 +15824,14 @@
       <c r="W41">
         <v>4.2684249900815097E-3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X41">
+        <v>1.021154474650466E-2</v>
+      </c>
+      <c r="Y41">
+        <v>8.4987482600515696E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="19">
         <v>2014</v>
@@ -15288,8 +15880,14 @@
       <c r="W42">
         <v>0.32336914053273791</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="19">
         <v>2015</v>
@@ -15338,8 +15936,14 @@
       <c r="W43">
         <v>0.1250544836673835</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X43">
+        <v>1.184217855468561E-3</v>
+      </c>
+      <c r="Y43">
+        <v>0.62054676828239597</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="19">
         <v>2016</v>
@@ -15388,8 +15992,14 @@
       <c r="W44">
         <v>0.25633120797289788</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="19">
         <v>2017</v>
@@ -15438,8 +16048,14 @@
       <c r="W45">
         <v>5.8256410557222749E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="19">
         <v>2018</v>
@@ -15488,8 +16104,14 @@
       <c r="W46">
         <v>0.23798658978839421</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <v>2.6920930756855121E-4</v>
+      </c>
+      <c r="Y46">
+        <v>0.92552610245273792</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="19">
         <v>2019</v>
@@ -15538,8 +16160,14 @@
       <c r="W47">
         <v>0.19762501183931169</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <v>1.495372072451335E-4</v>
+      </c>
+      <c r="Y47">
+        <v>0.96021866506318254</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="19">
         <v>2020</v>
@@ -15588,8 +16216,14 @@
       <c r="W48">
         <v>2.973715676257704E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <v>5.2617784324180692E-3</v>
+      </c>
+      <c r="Y48">
+        <v>9.5657577885210898E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="19" t="s">
         <v>10</v>
@@ -15638,8 +16272,20 @@
       <c r="W49">
         <v>0.93174184326293785</v>
       </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X49">
+        <v>5.8441605155868277E-3</v>
+      </c>
+      <c r="Y49">
+        <v>0.66667097699642941</v>
+      </c>
+      <c r="Z49">
+        <v>5.8467651204944394E-3</v>
+      </c>
+      <c r="AA49">
+        <v>0.71661196325701049</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="19" t="s">
         <v>11</v>
@@ -15688,8 +16334,20 @@
       <c r="W50">
         <v>0.61983969265546968</v>
       </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X50">
+        <v>1.0454546508129039E-2</v>
+      </c>
+      <c r="Y50">
+        <v>0.62195562443555907</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="19" t="s">
         <v>12</v>
@@ -15738,8 +16396,20 @@
       <c r="W51">
         <v>0.86884746521448553</v>
       </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>7.1310776606517794E-3</v>
+      </c>
+      <c r="AA51">
+        <v>0.88393235196217246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="19" t="s">
         <v>24</v>
@@ -15788,8 +16458,20 @@
       <c r="W52">
         <v>1.468391590846352E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>3.9679466073367824E-3</v>
+      </c>
+      <c r="AA52">
+        <v>0.92562955902012578</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="19" t="s">
         <v>25</v>
@@ -15838,8 +16520,20 @@
       <c r="W53">
         <v>5.0539027010563682E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X53">
+        <v>2.2873276396674351E-2</v>
+      </c>
+      <c r="Y53">
+        <v>0.7646047587149607</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="19" t="s">
         <v>26</v>
@@ -15888,8 +16582,20 @@
       <c r="W54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="19" t="s">
         <v>27</v>
@@ -15938,8 +16644,20 @@
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>8.3589702809396405E-4</v>
+      </c>
+      <c r="AA55">
+        <v>0.37650424295422757</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="19" t="s">
         <v>30</v>
@@ -15975,7 +16693,7 @@
       <c r="T56" s="38"/>
       <c r="U56" s="38"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="19" t="s">
         <v>31</v>
@@ -16024,8 +16742,20 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X57">
+        <v>8.5450740781384276E-5</v>
+      </c>
+      <c r="Y57">
+        <v>0.10748803584818491</v>
+      </c>
+      <c r="Z57">
+        <v>7.8850345767581971E-5</v>
+      </c>
+      <c r="AA57">
+        <v>0.12599248165547031</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="19"/>
       <c r="D58" s="4"/>
@@ -16043,7 +16773,7 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="19" t="s">
         <v>47</v>
@@ -16085,8 +16815,14 @@
       <c r="V59">
         <v>0.56652999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X59">
+        <v>0.94538</v>
+      </c>
+      <c r="Z59">
+        <v>0.94162999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="21" t="s">
         <v>48</v>
@@ -16124,11 +16860,17 @@
       <c r="V60">
         <v>0.68174000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X60">
+        <v>1.04413</v>
+      </c>
+      <c r="Z60">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -16145,8 +16887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD8FDEF-5FAF-4948-9678-6A92BFEF72A6}">
   <dimension ref="B2:AC51"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16267,14 +17009,14 @@
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="34" t="s">
         <v>3</v>
       </c>
@@ -16283,42 +17025,42 @@
         <v>3</v>
       </c>
       <c r="K9" s="45"/>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46" t="s">
+      <c r="O9" s="55"/>
+      <c r="P9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46" t="s">
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46" t="s">
+      <c r="S9" s="55"/>
+      <c r="T9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46" t="s">
+      <c r="U9" s="55"/>
+      <c r="V9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46" t="s">
+      <c r="W9" s="55"/>
+      <c r="X9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46" t="s">
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46" t="s">
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AC9" s="46"/>
+      <c r="AC9" s="55"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -17602,7 +18344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491F0FA-51F8-47E8-B34F-C7A34083A057}">
   <dimension ref="B2:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -17720,21 +18462,21 @@
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="55"/>
       <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="46"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="34" t="s">
         <v>36</v>
       </c>
